--- a/tables/relics_mod.xlsx
+++ b/tables/relics_mod.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Steam Games\steamapps\common\RouletteHero\Mod\ModTool\Config\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\rhmod\rh-wlj-mod\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200616DA-557F-4F7F-8E29-8BE4CEC89901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0E068E-87FF-4CA1-9D5A-E6F0EA87FE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="252" windowWidth="30936" windowHeight="17136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,10 +491,6 @@
     <t>relic_09</t>
   </si>
   <si>
-    <t>每次刷新有&lt;color=#008E11&gt;{0}%&lt;/color&gt;概率出现&lt;color=#BC3000&gt;战吼&lt;/color&gt;单位。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>战斗胜利时，额外获得&lt;color=#008E11&gt;+{0}&lt;/color&gt;金币。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -516,6 +512,10 @@
   </si>
   <si>
     <t>战斗开始时，使&lt;color=#008E11&gt;{0}&lt;/color&gt;个未来科技单位获得鸟类特性。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次普通刷新有&lt;color=#008E11&gt;{0}%&lt;/color&gt;概率出现&lt;color=#BC3000&gt;战吼&lt;/color&gt;单位。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -956,9 +956,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
-        <v>100002</v>
+        <v>10002</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>81</v>
@@ -1348,18 +1348,18 @@
         <v>1</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
-        <v>100004</v>
+        <v>10004</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>85</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J6" s="19" t="s">
         <v>99</v>
@@ -1377,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W6" s="10">
         <v>6</v>
@@ -1388,13 +1388,13 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
-        <v>100001</v>
+        <v>10001</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>80</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J7" s="19" t="s">
         <v>96</v>
@@ -1424,13 +1424,13 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
-        <v>100003</v>
+        <v>10003</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>86</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J8" s="19" t="s">
         <v>98</v>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="10">
-        <v>23</v>
+        <v>300001</v>
       </c>
       <c r="U8" s="10">
         <v>300002</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
-        <v>100005</v>
+        <v>10005</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>84</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
-        <v>100009</v>
+        <v>10009</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>93</v>
@@ -1526,12 +1526,12 @@
         <v>300003</v>
       </c>
       <c r="W10" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
-        <v>100006</v>
+        <v>10006</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>89</v>
@@ -1565,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="W11" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X11">
         <v>101</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
-        <v>100007</v>
+        <v>10007</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>83</v>
@@ -1597,12 +1597,12 @@
         <v>4</v>
       </c>
       <c r="Q12" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
-        <v>100008</v>
+        <v>10008</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>82</v>
@@ -1627,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="Q13" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">

--- a/tables/relics_mod.xlsx
+++ b/tables/relics_mod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\rhmod\rh-wlj-mod\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0E068E-87FF-4CA1-9D5A-E6F0EA87FE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255AA3A8-34F6-48FD-A159-07BD74BC6BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="252" windowWidth="30936" windowHeight="17136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -956,9 +956,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W10" sqref="W10"/>
+      <selection pane="bottomLeft" activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1326,6 +1326,9 @@
       <c r="B5" s="10">
         <v>10002</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="G5" s="18" t="s">
         <v>81</v>
       </c>
@@ -1355,6 +1358,9 @@
       <c r="B6" s="10">
         <v>10004</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="G6" s="18" t="s">
         <v>85</v>
       </c>
@@ -1390,6 +1396,9 @@
       <c r="B7" s="10">
         <v>10001</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="G7" s="18" t="s">
         <v>80</v>
       </c>
@@ -1426,6 +1435,9 @@
       <c r="B8" s="10">
         <v>10003</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="G8" s="18" t="s">
         <v>86</v>
       </c>
@@ -1463,6 +1475,9 @@
       <c r="B9" s="10">
         <v>10005</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="G9" s="18" t="s">
         <v>84</v>
       </c>
@@ -1496,6 +1511,9 @@
       <c r="B10" s="10">
         <v>10009</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
       <c r="G10" s="18" t="s">
         <v>93</v>
       </c>
@@ -1533,6 +1551,9 @@
       <c r="B11" s="10">
         <v>10006</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="G11" s="18" t="s">
         <v>89</v>
       </c>
@@ -1565,7 +1586,7 @@
         <v>3</v>
       </c>
       <c r="W11" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X11">
         <v>101</v>
@@ -1575,6 +1596,9 @@
       <c r="B12" s="10">
         <v>10007</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="G12" s="18" t="s">
         <v>83</v>
       </c>
@@ -1603,6 +1627,9 @@
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <v>10008</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>82</v>
